--- a/project/DCR/data/CustomerTemplate.xlsx
+++ b/project/DCR/data/CustomerTemplate.xlsx
@@ -469,8 +469,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -498,7 +498,97 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,14 +600,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -527,28 +609,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,90 +645,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -661,187 +661,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,36 +866,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,11 +920,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,153 +943,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,7 +1452,7 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/project/DCR/data/CustomerTemplate.xlsx
+++ b/project/DCR/data/CustomerTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Management" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
   <si>
     <t>Customer ID</t>
   </si>
@@ -150,16 +150,16 @@
     <t>C</t>
   </si>
   <si>
-    <t>Transsion</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>广东</t>
-  </si>
-  <si>
-    <t>深圳</t>
+    <t>Bangladesh District</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barisal</t>
+  </si>
+  <si>
+    <t>Barisal Tecno</t>
   </si>
   <si>
     <t>南山区深圳湾生态园9B5</t>
@@ -467,10 +467,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -498,7 +498,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,6 +511,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,7 +556,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,20 +626,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -562,89 +639,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -661,61 +661,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,49 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,6 +823,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -788,60 +842,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,13 +894,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,35 +933,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,150 +958,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1451,8 +1451,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1607,6 +1607,9 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
       <c r="R2" t="s">
@@ -1616,7 +1619,7 @@
         <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
         <v>46</v>

--- a/project/DCR/data/CustomerTemplate.xlsx
+++ b/project/DCR/data/CustomerTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12195"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Management" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="147">
   <si>
     <t>Customer ID</t>
   </si>
@@ -156,10 +156,13 @@
     <t>Bangladesh</t>
   </si>
   <si>
+    <t>Barisal-测试</t>
+  </si>
+  <si>
+    <t>Barisal-Wucong</t>
+  </si>
+  <si>
     <t>Barisal</t>
-  </si>
-  <si>
-    <t>Barisal Tecno</t>
   </si>
   <si>
     <t>南山区深圳湾生态园9B5</t>
@@ -467,10 +470,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -496,6 +499,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -503,7 +513,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,6 +546,75 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,14 +626,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -541,84 +635,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,20 +648,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -661,187 +664,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,23 +876,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,35 +923,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,162 +970,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1451,8 +1454,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1463,6 +1466,7 @@
     <col min="10" max="10" width="21.25" customWidth="1"/>
     <col min="11" max="11" width="20.125" customWidth="1"/>
     <col min="12" max="12" width="25.75" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:36">
@@ -1607,22 +1611,20 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="s">
         <v>45</v>
       </c>
+      <c r="Q2"/>
       <c r="R2" t="s">
         <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1678,33 +1680,33 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -1712,83 +1714,83 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -1798,352 +1800,352 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
